--- a/PSM-四个变量-2009基期/PSM匹配结果汇总_四个变量.xlsx
+++ b/PSM-四个变量-2009基期/PSM匹配结果汇总_四个变量.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1:1有放回匹配</t>
+          <t>1:1有放回匹配（Logit尺度）</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.045824</t>
+          <t>0.212436</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -529,7 +529,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>98.18%</t>
+          <t>91.82%</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
